--- a/public/files/templates/boq.xlsx
+++ b/public/files/templates/boq.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazem/apps/cost-control/storage/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omar.garana\Desktop\cost-control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21280" windowHeight="14060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOQ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Item Code</t>
   </si>
@@ -41,55 +41,49 @@
     <t>WBS Code</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Dry</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Arabic Description</t>
-  </si>
-  <si>
     <t>Division</t>
   </si>
   <si>
-    <t>Sub Division</t>
-  </si>
-  <si>
-    <t>Sub Division 2</t>
-  </si>
-  <si>
-    <t>KCC Qty</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Man Power</t>
-  </si>
-  <si>
-    <t>Subcon</t>
+    <t xml:space="preserve">Discipline </t>
+  </si>
+  <si>
+    <t>Sub-Division 1</t>
+  </si>
+  <si>
+    <t>Sub-Division 2</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>Estimated QTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Dry </t>
+  </si>
+  <si>
+    <t>KCC QTY</t>
+  </si>
+  <si>
+    <t>Sub-Con.</t>
+  </si>
+  <si>
+    <t>Manpower</t>
+  </si>
+  <si>
+    <t>Materials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,17 +126,345 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -153,6 +475,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="BOQ" displayName="BOQ" ref="A1:P52" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:P52"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="WBS Code" dataDxfId="15"/>
+    <tableColumn id="2" name="Item Code" dataDxfId="14"/>
+    <tableColumn id="3" name="Cost Account" dataDxfId="13"/>
+    <tableColumn id="4" name="Discipline " dataDxfId="12"/>
+    <tableColumn id="5" name="Division" dataDxfId="11"/>
+    <tableColumn id="6" name="Sub-Division 1" dataDxfId="10"/>
+    <tableColumn id="7" name="Sub-Division 2" dataDxfId="9"/>
+    <tableColumn id="8" name="Item Description" dataDxfId="8"/>
+    <tableColumn id="9" name="Unit" dataDxfId="7"/>
+    <tableColumn id="10" name="Estimated QTY" dataDxfId="6"/>
+    <tableColumn id="11" name="Unit Price " dataDxfId="5"/>
+    <tableColumn id="12" name="Unit Dry " dataDxfId="4"/>
+    <tableColumn id="13" name="KCC QTY" dataDxfId="3"/>
+    <tableColumn id="14" name="Materials" dataDxfId="2"/>
+    <tableColumn id="15" name="Sub-Con." dataDxfId="1"/>
+    <tableColumn id="16" name="Manpower" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,93 +765,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="26.5" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="2" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>